--- a/Team-Data/2013-14/1-25-2013-14.xlsx
+++ b/Team-Data/2013-14/1-25-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,55 +733,55 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.535</v>
+        <v>0.524</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J2" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0.781</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S2" t="n">
         <v>31.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
         <v>25.4</v>
@@ -735,16 +802,16 @@
         <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1</v>
+        <v>101.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -768,28 +835,28 @@
         <v>8</v>
       </c>
       <c r="AL2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM2" t="n">
         <v>4</v>
       </c>
-      <c r="AM2" t="n">
-        <v>3</v>
-      </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
         <v>20</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -813,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
@@ -962,13 +1029,13 @@
         <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS3" t="n">
         <v>21</v>
@@ -983,10 +1050,10 @@
         <v>24</v>
       </c>
       <c r="AW3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
@@ -1144,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>13</v>
@@ -1153,7 +1220,7 @@
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1177,7 +1244,7 @@
         <v>24</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0.413</v>
+        <v>0.422</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,49 +1297,49 @@
         <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L5" t="n">
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
         <v>0.73</v>
       </c>
       <c r="R5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T5" t="n">
         <v>41.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
         <v>12.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.7</v>
@@ -1281,13 +1348,13 @@
         <v>18.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.90000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1296,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1308,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1320,19 +1387,19 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1359,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -1394,55 +1461,55 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.512</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
         <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M6" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.342</v>
+        <v>0.338</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
         <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T6" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
@@ -1451,7 +1518,7 @@
         <v>15.8</v>
       </c>
       <c r="W6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>5.2</v>
@@ -1460,28 +1527,28 @@
         <v>6.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1490,13 +1557,13 @@
         <v>30</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
@@ -1511,13 +1578,13 @@
         <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1526,10 +1593,10 @@
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AX6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>-5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1684,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>20</v>
@@ -1723,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1863,13 +1930,13 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1890,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1961,37 +2028,37 @@
         <v>84.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.727</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
         <v>45.7</v>
       </c>
       <c r="U9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
         <v>15</v>
@@ -2003,37 +2070,37 @@
         <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -2042,28 +2109,28 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>6</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2075,19 +2142,19 @@
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
         <v>29</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2215,7 +2282,7 @@
         <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2254,16 +2321,16 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>4</v>
@@ -2424,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.63</v>
+        <v>0.644</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J12" t="n">
         <v>79.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L12" t="n">
         <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O12" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="P12" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R12" t="n">
         <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V12" t="n">
         <v>16.1</v>
       </c>
       <c r="W12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X12" t="n">
         <v>6</v>
@@ -2552,16 +2619,16 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>105</v>
+        <v>105.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2585,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL12" t="n">
         <v>6</v>
@@ -2609,34 +2676,34 @@
         <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
         <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>0.791</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,37 +2753,37 @@
         <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>80.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>7.2</v>
       </c>
       <c r="M13" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.364</v>
+        <v>0.363</v>
       </c>
       <c r="O13" t="n">
         <v>18.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.783</v>
+        <v>0.788</v>
       </c>
       <c r="R13" t="n">
         <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="T13" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U13" t="n">
         <v>20.7</v>
@@ -2725,31 +2792,31 @@
         <v>15.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y13" t="n">
         <v>4.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2767,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
         <v>18</v>
@@ -2776,10 +2843,10 @@
         <v>22</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>16</v>
@@ -2794,25 +2861,25 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
         <v>19</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>10</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -2850,61 +2917,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J14" t="n">
         <v>82.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="O14" t="n">
         <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.731</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
         <v>10.3</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V14" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2919,19 +2986,19 @@
         <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>106</v>
+        <v>105.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2946,19 +3013,19 @@
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>6</v>
       </c>
       <c r="AL14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2967,34 +3034,34 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
@@ -3134,7 +3201,7 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -3149,13 +3216,13 @@
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3164,13 +3231,13 @@
         <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.524</v>
+        <v>0.512</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R16" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S16" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
         <v>21.5</v>
@@ -3280,28 +3347,28 @@
         <v>5.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB16" t="n">
         <v>95.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
@@ -3310,7 +3377,7 @@
         <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>13</v>
@@ -3322,25 +3389,25 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
         <v>20</v>
       </c>
       <c r="AR16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS16" t="n">
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3349,13 +3416,13 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3367,7 +3434,7 @@
         <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,10 +3553,10 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3501,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN17" t="n">
         <v>7</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,10 +3598,10 @@
         <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.186</v>
+        <v>0.19</v>
       </c>
       <c r="H18" t="n">
         <v>48.8</v>
       </c>
       <c r="I18" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J18" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
@@ -3608,31 +3675,31 @@
         <v>20.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O18" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="P18" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.756</v>
       </c>
       <c r="R18" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S18" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T18" t="n">
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W18" t="n">
         <v>7.1</v>
@@ -3644,19 +3711,19 @@
         <v>5.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA18" t="n">
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.4</v>
+        <v>-9</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,10 +3762,10 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3710,22 +3777,22 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3781,76 +3848,76 @@
         <v>89.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
         <v>22.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O19" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R19" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S19" t="n">
         <v>32.6</v>
       </c>
       <c r="T19" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U19" t="n">
         <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W19" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE19" t="n">
         <v>13</v>
       </c>
-      <c r="AE19" t="n">
-        <v>15</v>
-      </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3859,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>15</v>
@@ -3868,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>2</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>3</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>2</v>
@@ -3904,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4059,7 +4126,7 @@
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
@@ -4074,7 +4141,7 @@
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
         <v>22</v>
@@ -4220,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4229,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN21" t="n">
         <v>16</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4271,7 +4338,7 @@
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.778</v>
+        <v>0.773</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4324,28 +4391,28 @@
         <v>39</v>
       </c>
       <c r="J22" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
         <v>20.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P22" t="n">
         <v>25.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R22" t="n">
         <v>11.3</v>
@@ -4354,37 +4421,37 @@
         <v>35.2</v>
       </c>
       <c r="T22" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="U22" t="n">
         <v>21.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
         <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y22" t="n">
         <v>3.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,22 +4466,22 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4432,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
@@ -4453,10 +4520,10 @@
         <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,13 +4645,13 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
@@ -4605,13 +4672,13 @@
         <v>21</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
         <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0.318</v>
+        <v>0.326</v>
       </c>
       <c r="H24" t="n">
         <v>48.8</v>
       </c>
       <c r="I24" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J24" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L24" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="O24" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.708</v>
+        <v>0.709</v>
       </c>
       <c r="R24" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T24" t="n">
         <v>45</v>
       </c>
       <c r="U24" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V24" t="n">
         <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X24" t="n">
         <v>4.3</v>
@@ -4742,46 +4809,46 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG24" t="n">
         <v>27</v>
       </c>
-      <c r="AG24" t="n">
-        <v>28</v>
-      </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
       </c>
       <c r="AM24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN24" t="n">
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -4790,13 +4857,13 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
         <v>11</v>
@@ -4817,7 +4884,7 @@
         <v>19</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4948,7 +5015,7 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>11</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4984,19 +5051,19 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
         <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>0.744</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="J26" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.39</v>
+        <v>0.392</v>
       </c>
       <c r="O26" t="n">
         <v>18.5</v>
@@ -5073,13 +5140,13 @@
         <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.823</v>
+        <v>0.824</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T26" t="n">
         <v>46.5</v>
@@ -5091,31 +5158,31 @@
         <v>13.6</v>
       </c>
       <c r="W26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
         <v>20.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>109.5</v>
+        <v>109.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
         <v>4</v>
@@ -5124,22 +5191,22 @@
         <v>4</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
@@ -5157,10 +5224,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>3</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5312,31 +5379,31 @@
         <v>16</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
       </c>
       <c r="AP27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
         <v>16</v>
@@ -5348,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW27" t="n">
         <v>15</v>
@@ -5366,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5521,10 +5588,10 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5542,7 +5609,7 @@
         <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="n">
         <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.512</v>
+        <v>0.524</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,37 +5665,37 @@
         <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="M29" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.364</v>
+        <v>0.36</v>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="P29" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R29" t="n">
         <v>12</v>
       </c>
       <c r="S29" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U29" t="n">
         <v>20.4</v>
@@ -5637,10 +5704,10 @@
         <v>14.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>4.7</v>
@@ -5652,22 +5719,22 @@
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.2</v>
+        <v>98.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5676,28 +5743,28 @@
         <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM29" t="n">
         <v>11</v>
       </c>
-      <c r="AM29" t="n">
-        <v>10</v>
-      </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP29" t="n">
         <v>10</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>9</v>
@@ -5709,19 +5776,19 @@
         <v>13</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.341</v>
+        <v>0.326</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5789,67 +5856,67 @@
         <v>6.6</v>
       </c>
       <c r="M30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O30" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P30" t="n">
         <v>21.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T30" t="n">
         <v>41.3</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.7</v>
+        <v>94.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF30" t="n">
         <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5876,37 +5943,37 @@
         <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>19</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
         <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
@@ -5944,31 +6011,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" t="n">
         <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.449</v>
       </c>
       <c r="L31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
         <v>20.4</v>
@@ -5980,58 +6047,58 @@
         <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
         <v>31.7</v>
       </c>
       <c r="T31" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U31" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB31" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="AD31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE31" t="n">
         <v>13</v>
       </c>
-      <c r="AE31" t="n">
-        <v>15</v>
-      </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6040,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>16</v>
@@ -6058,46 +6125,46 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-25-2013-14</t>
+          <t>2014-01-25</t>
         </is>
       </c>
     </row>
